--- a/Income/HOLX_inc.xlsx
+++ b/Income/HOLX_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.6468</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5864</v>
+        <v>0.582</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4681</v>
+        <v>0.4629</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4605</v>
+        <v>0.4554</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.3506</v>
+        <v>0.3456</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.3477</v>
@@ -2362,16 +2362,16 @@
         <v>0.3827</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.265</v>
+        <v>0.2652</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0793</v>
+        <v>0.0794</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.0626</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.0782</v>
+        <v>-0.0781</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>-0.0765</v>
@@ -2489,16 +2489,16 @@
         <v>0.3049</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2952</v>
+        <v>0.2953</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1506</v>
+        <v>0.1507</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0.1361</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0247</v>
+        <v>0.0248</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>-0.0605</v>
@@ -2625,7 +2625,7 @@
         <v>0.1572</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.1596</v>
+        <v>0.1597</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.158</v>
@@ -3632,16 +3632,16 @@
         <v>0.4985</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.4043</v>
+        <v>0.3962</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.3325</v>
+        <v>0.3232</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.2372</v>
+        <v>0.2279</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.0974</v>
+        <v>0.0883</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1008</v>
